--- a/资源目录.xlsx
+++ b/资源目录.xlsx
@@ -1,189 +1,385 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+  <si>
+    <t>矮大紧指北</t>
+  </si>
   <si>
     <t>http://weike2345.com/channel/1001</t>
   </si>
   <si>
+    <t>Channel这个单词频道的意思program是页</t>
+  </si>
+  <si>
+    <t>给孩子听中国史</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1007</t>
   </si>
   <si>
+    <t>每周带小学生共读一本书</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1008</t>
   </si>
   <si>
+    <t>科学队长</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1009</t>
   </si>
   <si>
+    <t>世界童话故事</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1010</t>
   </si>
   <si>
+    <t>西游记第一部</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1011</t>
   </si>
   <si>
+    <t>声律启蒙</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1012</t>
   </si>
   <si>
+    <t>蒋勋说红楼梦</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1013</t>
+  </si>
+  <si>
+    <t>李阳疯狂英语</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1014</t>
   </si>
   <si>
+    <t>小白到演讲高手的十堂课</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1015</t>
   </si>
   <si>
+    <t>凯叔西游记【第三部】</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1016</t>
   </si>
   <si>
+    <t>于丹讲国学</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1017</t>
   </si>
   <si>
+    <t>婷婷诗教第一季</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1018</t>
   </si>
   <si>
+    <t>花生酥老师：超懂小学生的作文秘笈</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1019</t>
   </si>
   <si>
+    <t>西游记第二部</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1020</t>
   </si>
   <si>
+    <t>高效时间管理</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1021</t>
   </si>
   <si>
+    <t>做不焦虑的家长</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1022</t>
   </si>
   <si>
+    <t>好好说话</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1023</t>
   </si>
   <si>
+    <t>冥想训练营</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1024</t>
   </si>
   <si>
+    <t>奇葩说原班人马:小学问</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1025</t>
   </si>
   <si>
+    <t>平说经典：中小学文学经典导读</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1026</t>
   </si>
   <si>
+    <t>西游记第四部</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1027</t>
   </si>
   <si>
+    <t>西游记第五部</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1028</t>
   </si>
   <si>
+    <t>时间管理十堂课</t>
+  </si>
+  <si>
     <t>http://weike2345.com/channel/1031</t>
   </si>
   <si>
-    <t>矮大紧指北</t>
-  </si>
-  <si>
-    <t>给孩子听中国史</t>
-  </si>
-  <si>
-    <t>每周带小学生共读一本书</t>
-  </si>
-  <si>
-    <t>世界童话故事</t>
-  </si>
-  <si>
-    <t>科学队长</t>
-  </si>
-  <si>
-    <t>西游记第一部</t>
-  </si>
-  <si>
-    <t>声律启蒙</t>
-  </si>
-  <si>
-    <t>蒋勋说红楼梦</t>
-  </si>
-  <si>
-    <t>http://weike2345.com/channel/1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李阳疯狂英语</t>
-  </si>
-  <si>
-    <t>小白到演讲高手的十堂课</t>
-  </si>
-  <si>
-    <t>凯叔西游记【第三部】</t>
-  </si>
-  <si>
-    <t>于丹讲国学</t>
-  </si>
-  <si>
-    <t>婷婷诗教第一季</t>
-  </si>
-  <si>
-    <t>花生酥老师：超懂小学生的作文秘笈</t>
-  </si>
-  <si>
-    <t>西游记第二部</t>
-  </si>
-  <si>
-    <t>高效时间管理</t>
-  </si>
-  <si>
-    <t>做不焦虑的家长</t>
-  </si>
-  <si>
-    <t>Channel这个单词频道的意思program是页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好好说话</t>
-  </si>
-  <si>
-    <t>冥想训练营</t>
-  </si>
-  <si>
-    <t>奇葩说原班人马:小学问</t>
-  </si>
-  <si>
-    <t>平说经典：中小学文学经典导读</t>
-  </si>
-  <si>
-    <t>西游记第四部</t>
-  </si>
-  <si>
-    <t>西游记第五部</t>
-  </si>
-  <si>
-    <t>时间管理十堂课</t>
+    <t>托德讲儿童心理</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1032</t>
+  </si>
+  <si>
+    <t>北大Dr.帅澜心理学课堂</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1033</t>
+  </si>
+  <si>
+    <t>新东方名师英语班</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1034</t>
+  </si>
+  <si>
+    <t>高效陪读</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1035</t>
+  </si>
+  <si>
+    <t>新黑猫警长第五部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1036</t>
+  </si>
+  <si>
+    <t>新黑猫警长第四部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1037</t>
+  </si>
+  <si>
+    <t>新黑猫警长第一部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1038</t>
+  </si>
+  <si>
+    <t>新黑猫警长第二部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1039</t>
+  </si>
+  <si>
+    <t>新黑猫警长第三部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1040</t>
+  </si>
+  <si>
+    <t>傅国翔：这么吃从源头开始预防癌症</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1041</t>
+  </si>
+  <si>
+    <t>品读经典宋词</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1042</t>
+  </si>
+  <si>
+    <t>郦波的语文启蒙课</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1043</t>
+  </si>
+  <si>
+    <t>新黑猫警长第六部</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1044</t>
+  </si>
+  <si>
+    <t>于晓非《金刚经》导读</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1045</t>
+  </si>
+  <si>
+    <t>品最美唐诗</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1046</t>
+  </si>
+  <si>
+    <t>胡艺瀚的奢侈品普及课</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1047</t>
+  </si>
+  <si>
+    <t>儿童时间管理：不吼不叫根治孩子拖拉</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1048</t>
+  </si>
+  <si>
+    <t>凯叔送给孩子的十万个为什么</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1049</t>
+  </si>
+  <si>
+    <t>余世维家庭教育课</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1050</t>
+  </si>
+  <si>
+    <t>张怡筠亲子情商课第一季</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1051</t>
+  </si>
+  <si>
+    <t>美国私立小学的财商启蒙课-学生版</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1052</t>
+  </si>
+  <si>
+    <t>婷婷唱古文</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1053</t>
+  </si>
+  <si>
+    <t>儿童音乐启蒙</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1054</t>
+  </si>
+  <si>
+    <t>读懂诗人才懂诗</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1055</t>
+  </si>
+  <si>
+    <t>乐嘉心里色彩：读心术</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1056</t>
+  </si>
+  <si>
+    <t>思维精进：人生逆袭手册</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1057</t>
+  </si>
+  <si>
+    <t>姜鹏精读《资治通鉴》·汉帝国</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1058</t>
+  </si>
+  <si>
+    <t>跟着西游记学作文</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1059</t>
+  </si>
+  <si>
+    <r>
+      <t>战隼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天行动带你养成好习惯</t>
+    </r>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1060</t>
+  </si>
+  <si>
+    <t>曲黎敏：诗经之美</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1061</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +388,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,18 +395,367 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -219,40 +763,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -543,270 +1384,517 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="45.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" ht="18.75" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="19.5" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="22" ht="19.5" spans="1:2">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="23" ht="19.5" spans="1:2">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" ht="19.5" spans="1:2">
+      <c r="A24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="25" ht="18.75" spans="1:2">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="19.5" spans="1:2">
+      <c r="A29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" spans="1:2">
+      <c r="A30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" spans="1:2">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" spans="1:2">
+      <c r="A32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" ht="19.5" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" ht="19.5" spans="1:2">
+      <c r="A34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" ht="19.5" spans="1:2">
+      <c r="A35" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" ht="19.5" spans="1:2">
+      <c r="A36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="19.5" spans="1:2">
+      <c r="A37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" ht="19.5" spans="1:2">
+      <c r="A38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" ht="19.5" spans="1:2">
+      <c r="A39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" ht="19.5" spans="1:2">
+      <c r="A40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" ht="19.5" spans="1:2">
+      <c r="A41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" ht="19.5" spans="1:2">
+      <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" ht="19.5" spans="1:2">
+      <c r="A43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" ht="19.5" spans="1:2">
+      <c r="A44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="19.5" spans="1:2">
+      <c r="A45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" ht="19.5" spans="1:2">
+      <c r="A46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" ht="19.5" spans="1:2">
+      <c r="A47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" ht="19.5" spans="1:2">
+      <c r="A48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" ht="19.5" spans="1:2">
+      <c r="A50" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" ht="19.5" spans="1:2">
+      <c r="A51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" ht="19.5" spans="1:2">
+      <c r="A52" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" ht="19.5" spans="1:2">
+      <c r="A53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" spans="1:2">
+      <c r="A54" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:I3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://weike2345.com/channel/1013"/>
+    <hyperlink ref="B24" r:id="rId2" display="http://weike2345.com/channel/1031"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/资源目录.xlsx
+++ b/资源目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>矮大紧指北</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>战隼</t>
     </r>
     <r>
@@ -364,18 +370,30 @@
   <si>
     <t>http://weike2345.com/channel/1061</t>
   </si>
+  <si>
+    <t>梁东庄子笔记</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1062</t>
+  </si>
+  <si>
+    <t>品千古最美情诗</t>
+  </si>
+  <si>
+    <t>http://weike2345.com/channel/1063</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +436,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,14 +534,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -448,64 +541,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,50 +571,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -570,67 +581,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,115 +761,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,6 +772,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -782,38 +856,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,87 +872,51 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,101 +925,104 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1052,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1390,10 +1404,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1851,6 +1865,22 @@
       </c>
       <c r="B54" s="2" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="1:2">
+      <c r="A55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" spans="1:2">
+      <c r="A56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/资源目录.xlsx
+++ b/资源目录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,10 +388,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -436,6 +436,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -444,20 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -466,8 +459,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +497,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -497,14 +521,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,22 +550,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -541,11 +557,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,21 +571,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,181 +581,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,30 +772,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,6 +795,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,17 +872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,16 +892,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,119 +910,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,12 +1038,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,9 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1406,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1543,12 +1540,12 @@
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" ht="19.5" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1556,7 +1553,7 @@
       </c>
     </row>
     <row r="16" ht="19.5" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1564,15 +1561,15 @@
       </c>
     </row>
     <row r="17" ht="19.5" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="19.5" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1580,7 +1577,7 @@
       </c>
     </row>
     <row r="19" ht="19.5" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1588,7 +1585,7 @@
       </c>
     </row>
     <row r="20" ht="19.5" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1596,7 +1593,7 @@
       </c>
     </row>
     <row r="21" ht="19.5" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1604,7 +1601,7 @@
       </c>
     </row>
     <row r="22" ht="19.5" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1612,7 +1609,7 @@
       </c>
     </row>
     <row r="23" ht="19.5" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1620,10 +1617,10 @@
       </c>
     </row>
     <row r="24" ht="19.5" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1868,7 +1865,7 @@
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1876,7 +1873,7 @@
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1890,6 +1887,8 @@
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" display="http://weike2345.com/channel/1013"/>
     <hyperlink ref="B24" r:id="rId2" display="http://weike2345.com/channel/1031"/>
+    <hyperlink ref="B17" r:id="rId3" display="http://weike2345.com/channel/1022"/>
+    <hyperlink ref="B14" r:id="rId4" display="http://weike2345.com/channel/1019"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
